--- a/src/test/resources/TestScripts_data.xlsx
+++ b/src/test/resources/TestScripts_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nani\eclipse-workspace\com.RunWaySales\src\test\resources\"/>
     </mc:Choice>
@@ -18,10 +18,11 @@
     <sheet name="salesorder" sheetId="3" r:id="rId3"/>
     <sheet name="opportunities" sheetId="4" r:id="rId4"/>
     <sheet name="DataProvider" sheetId="5" r:id="rId5"/>
+    <sheet name="Data" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>tdame</t>
   </si>
@@ -161,12 +162,22 @@
   </si>
   <si>
     <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>East Caribbean Dollar</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,8 +601,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,8 +668,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,8 +753,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +804,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,4 +866,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>